--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1971.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1971.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.359932243852022</v>
+        <v>0.9219396710395813</v>
       </c>
       <c r="B1">
-        <v>2.792957410945726</v>
+        <v>1.114791989326477</v>
       </c>
       <c r="C1">
-        <v>10.23682455088832</v>
+        <v>8.942621231079102</v>
       </c>
       <c r="D1">
-        <v>1.98646074944611</v>
+        <v>2.29966402053833</v>
       </c>
       <c r="E1">
-        <v>1.029335022108778</v>
+        <v>1.25879955291748</v>
       </c>
     </row>
   </sheetData>
